--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG13999\Documents\Automation\WeatherForecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1767AA-C505-4026-9448-B20C630BA324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE33785-0AC4-491C-B0FF-03924E5BB1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Tolerance</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
